--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_18-13.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_18-13.xlsx
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>CEFOTAX 2 GM VIAL</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
     <t>COLOVATIL 30 F.C. TABS</t>
@@ -1172,13 +1175,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>21</v>
+        <v>43.329999999999998</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
@@ -1198,17 +1201,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1216,7 +1219,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1224,17 +1227,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1242,7 +1245,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1250,17 +1253,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1276,17 +1279,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1294,7 +1297,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1302,17 +1305,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1320,7 +1323,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1328,17 +1331,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>0.5</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1346,7 +1349,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1354,17 +1357,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1380,17 +1383,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>0.67000000000000004</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1398,7 +1401,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1406,13 +1409,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
@@ -1432,17 +1435,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1458,17 +1461,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>55.670000000000002</v>
+        <v>34</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1476,7 +1479,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1484,17 +1487,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>1475</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>5</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1516,11 +1519,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>92</v>
+        <v>1475</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1536,13 +1539,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
@@ -1568,7 +1571,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1588,17 +1591,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1614,17 +1617,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1646,7 +1649,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
@@ -1666,17 +1669,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1692,17 +1695,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1718,17 +1721,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1744,17 +1747,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1770,17 +1773,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>7.0499999999999998</v>
+        <v>130</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>0.050000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1796,17 +1799,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>221.16</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>1</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1828,11 +1831,11 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>58</v>
+        <v>221.16</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1854,11 +1857,11 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>160.55000000000001</v>
+        <v>58</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1874,17 +1877,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>13</v>
+        <v>160.55000000000001</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1892,7 +1895,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1900,17 +1903,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1926,17 +1929,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1952,17 +1955,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>115.2</v>
+        <v>20</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1978,17 +1981,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>28.710000000000001</v>
+        <v>115.2</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2010,11 +2013,11 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>250</v>
+        <v>28.710000000000001</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2030,17 +2033,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2056,17 +2059,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2074,7 +2077,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2082,17 +2085,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2100,7 +2103,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2108,17 +2111,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2126,7 +2129,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2134,7 +2137,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -2152,7 +2155,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2160,13 +2163,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
@@ -2178,7 +2181,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2186,13 +2189,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2212,13 +2215,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
@@ -2230,7 +2233,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2238,17 +2241,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2256,7 +2259,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2264,17 +2267,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2282,7 +2285,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2290,17 +2293,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2316,17 +2319,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2342,17 +2345,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2360,7 +2363,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2368,17 +2371,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2386,7 +2389,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2394,13 +2397,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
@@ -2412,7 +2415,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2420,17 +2423,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2446,51 +2449,77 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" ht="26.25" customHeight="1">
-      <c r="K65" s="11">
-        <v>5280.8400000000001</v>
-      </c>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" ht="25.5" customHeight="1">
+      <c r="A65" s="6">
+        <v>62</v>
+      </c>
+      <c t="s" r="B65" s="7">
         <v>94</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c t="s" r="F66" s="13">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c t="s" r="H65" s="8">
+        <v>82</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="9">
+        <v>20</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c r="N65" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="K66" s="11">
+        <v>5324.1700000000001</v>
+      </c>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="12">
         <v>95</v>
       </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="14"/>
-      <c t="s" r="I66" s="15">
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c t="s" r="F67" s="13">
         <v>96</v>
       </c>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="14"/>
+      <c t="s" r="I67" s="15">
+        <v>97</v>
+      </c>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="194">
+  <mergeCells count="197">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2681,10 +2710,13 @@
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I67:N67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
